--- a/TODO-List-of-20-labs/Data Mining.xlsx
+++ b/TODO-List-of-20-labs/Data Mining.xlsx
@@ -91,11 +91,11 @@
     <t>CSE06</t>
   </si>
   <si>
-    <t>This lab is under progress. All the experiments content is same.</t>
-  </si>
-  <si>
     <t xml:space="preserve">NO
 </t>
+  </si>
+  <si>
+    <t>Html, Javascript</t>
   </si>
 </sst>
 </file>
@@ -225,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -262,6 +262,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,13 +567,13 @@
   <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
     <col min="10" max="17" width="17.85546875" customWidth="1"/>
@@ -627,7 +628,7 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>10</v>
       </c>
@@ -643,14 +644,14 @@
       <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>25</v>
+      <c r="F2" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>12</v>
@@ -659,7 +660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -669,19 +670,19 @@
       <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>25</v>
+      <c r="F3" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:27" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -691,19 +692,19 @@
       <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>25</v>
+      <c r="F4" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:27" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -713,19 +714,19 @@
       <c r="E5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>25</v>
+      <c r="F5" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:27" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -735,19 +736,19 @@
       <c r="E6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>25</v>
+      <c r="F6" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:27" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -757,19 +758,19 @@
       <c r="E7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>25</v>
+      <c r="F7" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:27" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -779,19 +780,19 @@
       <c r="E8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>25</v>
+      <c r="F8" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:27" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -801,19 +802,19 @@
       <c r="E9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>25</v>
+      <c r="F9" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:27" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -823,19 +824,19 @@
       <c r="E10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>25</v>
+      <c r="F10" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:27" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -845,14 +846,14 @@
       <c r="E11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>25</v>
+      <c r="F11" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
